--- a/docs/unit1/02_darcy/slurrywall_KEY.xlsx
+++ b/docs/unit1/02_darcy/slurrywall_KEY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/2. darcy's law/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D54581D-9BE6-6148-B94A-3AFADBACD989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B285FD-D175-2041-A96C-A1ABE94D5139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2500" windowWidth="31600" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
